--- a/data/trans_bre/P25_10-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>19,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>22,42</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,87</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>303,74%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>222,72%</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>196,99%</t>
+          <t>306,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>200,43%</t>
+          <t>231,73%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>211,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>254,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>200,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>129,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,75</t>
+          <t>15,32; 23,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,1</t>
+          <t>11,04; 18,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 16,8</t>
+          <t>10,42; 17,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 17,71</t>
+          <t>17,98; 26,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>186,52; 496,8</t>
+          <t>10,76; 17,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>113,19; 374,08</t>
+          <t>11,41; 19,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,33; 322,6</t>
+          <t>192,37; 469,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>127,61; 319,47</t>
+          <t>125,21; 399,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112,04; 332,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>162,72; 391,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122,56; 312,69</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>85,77; 190,83</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,54</t>
+          <t>19,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>15,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,57</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>19,18</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>12,29</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>306,47%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>274,7%</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>204,29%</t>
+          <t>305,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>161,18%</t>
+          <t>271,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>214,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>201,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>161,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>141,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,42</t>
+          <t>15,0; 24,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 19,71</t>
+          <t>12,04; 19,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,19</t>
+          <t>11,09; 19,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 18,55</t>
+          <t>13,98; 24,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>188,77; 510,19</t>
+          <t>6,0; 19,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>163,16; 446,16</t>
+          <t>7,72; 21,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>113,11; 345,67</t>
+          <t>177,89; 488,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,98; 340,12</t>
+          <t>168,9; 449,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>118,39; 346,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>122,24; 323,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61,4; 364,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54,34; 280,69</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,05</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20,38</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>344,84%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>126,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>355,03%</t>
+          <t>374,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>127,86%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>354,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>323,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 29,64</t>
+          <t>11,63; 28,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 18,5</t>
+          <t>3,33; 19,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 24,86</t>
+          <t>11,13; 25,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10,55; 30,21</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>92,23; 1168,48</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 320,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,35; 912,58</t>
+          <t>103,82; 1174,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 326,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>113,41; 1235,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>80,96; 948,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,34</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20,95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>13,51</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>309,27%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>225,22%</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>213,86%</t>
+          <t>312,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>190,63%</t>
+          <t>228,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>225,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>238,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>190,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>132,4%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,02</t>
+          <t>16,7; 22,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,86</t>
+          <t>12,07; 17,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,73</t>
+          <t>12,25; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,43</t>
+          <t>17,82; 24,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>219,63; 416,29</t>
+          <t>10,33; 16,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>154,89; 317,52</t>
+          <t>11,47; 18,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>144,87; 301,26</t>
+          <t>228,93; 424,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>126,38; 275,2</t>
+          <t>152,21; 312,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>150,85; 309,69</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>173,45; 324,79</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>123,47; 288,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90,85; 182,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_10-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,96</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>306,24%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>231,73%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>211,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>254,74%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>200,45%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>129,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.5210177108731</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.67878233662735</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.81022636235171</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>22.01565435691495</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>13.86752220288533</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>14.97893642057579</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.12994633189502</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.26865275988338</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.061707034884126</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.484218247175308</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>2.004514926400991</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.294223405525851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 23,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 18,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10,42; 17,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>17,98; 26,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,76; 17,99</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,41; 19,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>192,37; 469,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>125,21; 399,96</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>112,04; 332,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>162,72; 391,45</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>122,56; 312,69</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>85,77; 190,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15.59008775868586</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10.85216831665578</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10.17473092018624</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>17.53044966926474</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>10.75888518252847</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>11.41842059009805</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>2.005303364306783</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>1.154382646236963</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>1.067378113681153</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>1.577528285163422</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>1.225552564135837</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.8531374003472683</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.5107290581785</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.09566486291234</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.42513138718942</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.39506913190616</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.9946507985041</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>19.00438231133603</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.858903560666386</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.885846261371319</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.260738091104791</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.838637594405458</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>3.126937848881826</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.912885284837494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,99</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,92</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>305,6%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>271,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>214,72%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>201,14%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>161,23%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>141,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>15,0; 24,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12,04; 19,7</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>11,09; 19,86</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>13,98; 24,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 19,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 21,64</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>177,89; 488,45</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>168,9; 449,6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>118,39; 346,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>122,24; 323,19</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>61,4; 364,44</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>54,34; 280,69</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>18.41411445543752</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>15.89769281909188</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.00709399979587</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19.59314223138203</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>12.28767623089039</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>14.94132270446767</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.653882841197496</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.784567828361804</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.104077172165547</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.062429717573806</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.612301899561163</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.40173121876208</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>374,79%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>127,86%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>354,26%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>323,31%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>13.49891575488958</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.33447100890483</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>11.01513429590535</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>14.47201652004304</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>6.003671079232509</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7.665064336256408</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.495208158897725</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1.722466917239537</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.169375814410094</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1.265119625739617</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.6139621776430068</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.5264831625078836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 28,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 19,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11,13; 25,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>10,55; 30,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>103,82; 1174,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>21,15; 326,98</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>113,41; 1235,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>80,96; 948,87</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.9586773883868</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.05943196152908</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.78795314362026</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.29930657710747</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>19.12651502815289</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.81517782250992</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.290500493665427</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.662094440961325</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.385370266913943</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.362209706838009</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.644368641528574</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.793786989915448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>19,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,85</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,95</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,51</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,98</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>312,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>228,35%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>225,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>238,34%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>190,67%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>132,4%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>20.51700121169847</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.97527038682508</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>17.68551852204325</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.83021232840922</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>4.11974038801802</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.196585445630827</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>3.375656116514863</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>3.348895736508594</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>16,7; 22,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,07; 17,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12,25; 17,53</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>17,82; 24,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,33; 16,7</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,47; 18,14</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>228,93; 424,28</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>152,21; 312,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>150,85; 309,69</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>173,45; 324,79</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>123,47; 288,17</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>90,85; 182,45</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>12.44649954876492</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.980453244745175</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>10.68214135913776</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>10.99531739066778</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>1.128774383143623</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1457850425949327</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>1.073227401445974</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.8107847983831786</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>29.91885466292541</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.97087366325119</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>25.872754756759</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.6945469875685</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>12.38934531431295</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.023269862678558</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>11.29581788750089</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>9.943243311765052</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>19.20915300861783</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.71235954350209</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.71558613719751</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>20.95835217134032</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>13.51167969073636</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>14.99010732354551</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>3.01909350003631</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.264289691835134</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.198632380601821</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.383240008511446</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.906659736873973</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.320511349659193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>16.56758543562754</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>12.07900084466379</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>12.09592105634209</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>17.88016725132238</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>10.32559074178872</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>11.50232364040464</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>2.193299029332616</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.460653511850106</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.466541449266054</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.727599562335198</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>1.234744738911396</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.9009801240707446</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>22.06787787237072</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.21593614613287</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.32094388324307</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>24.3905558097557</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.70014592836633</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>18.15773292653498</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.150453144289082</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.073901056449456</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.046664524177696</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.233872211961955</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.881722456708731</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.814653087278442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
